--- a/python/indprodpy.xlsx
+++ b/python/indprodpy.xlsx
@@ -4978,7 +4978,7 @@
         <v>236</v>
       </c>
       <c r="D235">
-        <v>100</v>
+        <v>85.47513999071522</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -6322,7 +6322,7 @@
         <v>332</v>
       </c>
       <c r="D331">
-        <v>103.2204898073614</v>
+        <v>101.250591</v>
       </c>
     </row>
     <row r="332" spans="1:4">
@@ -7848,7 +7848,7 @@
         <v>36</v>
       </c>
       <c r="D440">
-        <v>80.66783831282953</v>
+        <v>100</v>
       </c>
     </row>
     <row r="441" spans="1:4">
@@ -13630,7 +13630,7 @@
         <v>112</v>
       </c>
       <c r="D853">
-        <v>91.9565238512821</v>
+        <v>93.3569992267108</v>
       </c>
     </row>
     <row r="854" spans="1:4">
@@ -14722,7 +14722,7 @@
         <v>204</v>
       </c>
       <c r="D931">
-        <v>94.68875750028674</v>
+        <v>95.64909023895925</v>
       </c>
     </row>
     <row r="932" spans="1:4">
@@ -15254,7 +15254,7 @@
         <v>414</v>
       </c>
       <c r="D969">
-        <v>98.90039124950071</v>
+        <v>100</v>
       </c>
     </row>
     <row r="970" spans="1:4">
@@ -16766,7 +16766,7 @@
         <v>379</v>
       </c>
       <c r="D1077">
-        <v>101.3327835772543</v>
+        <v>99.87089174288872</v>
       </c>
     </row>
     <row r="1078" spans="1:4">
@@ -16864,7 +16864,7 @@
         <v>386</v>
       </c>
       <c r="D1084">
-        <v>101.4464210106907</v>
+        <v>99.331097</v>
       </c>
     </row>
     <row r="1085" spans="1:4">
@@ -16892,7 +16892,7 @@
         <v>388</v>
       </c>
       <c r="D1086">
-        <v>100.6882738511882</v>
+        <v>102.2487342357946</v>
       </c>
     </row>
     <row r="1087" spans="1:4">
@@ -17046,7 +17046,7 @@
         <v>402</v>
       </c>
       <c r="D1097">
-        <v>92.83177667225559</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -22100,7 +22100,7 @@
         <v>18</v>
       </c>
       <c r="D1458">
-        <v>100.5938049851942</v>
+        <v>100.2633906818904</v>
       </c>
     </row>
     <row r="1459" spans="1:4">
@@ -22338,7 +22338,7 @@
         <v>33</v>
       </c>
       <c r="D1475">
-        <v>102.5652435295705</v>
+        <v>99.83103889894778</v>
       </c>
     </row>
     <row r="1476" spans="1:4">
@@ -24382,7 +24382,7 @@
         <v>183</v>
       </c>
       <c r="D1621">
-        <v>111.7647058823529</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1622" spans="1:4">
@@ -25978,7 +25978,7 @@
         <v>310</v>
       </c>
       <c r="D1735">
-        <v>104.1666666666667</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1736" spans="1:4">
@@ -27056,7 +27056,7 @@
         <v>399</v>
       </c>
       <c r="D1812">
-        <v>103.2280115456367</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1813" spans="1:4">
@@ -27840,7 +27840,7 @@
         <v>49</v>
       </c>
       <c r="D1868">
-        <v>97.84746671624556</v>
+        <v>99.46809739771892</v>
       </c>
     </row>
     <row r="1869" spans="1:4">
@@ -27924,7 +27924,7 @@
         <v>432</v>
       </c>
       <c r="D1874">
-        <v>80</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1875" spans="1:4">
@@ -28330,7 +28330,7 @@
         <v>83</v>
       </c>
       <c r="D1903">
-        <v>100.5810883434236</v>
+        <v>100.5643588803444</v>
       </c>
     </row>
     <row r="1904" spans="1:4">
@@ -28750,7 +28750,7 @@
         <v>114</v>
       </c>
       <c r="D1933">
-        <v>99.55519416528004</v>
+        <v>99.09746166763316</v>
       </c>
     </row>
     <row r="1934" spans="1:4">
@@ -29422,7 +29422,7 @@
         <v>163</v>
       </c>
       <c r="D1981">
-        <v>93.20913881311273</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -30584,7 +30584,7 @@
         <v>242</v>
       </c>
       <c r="D2064">
-        <v>95.81562620911723</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2065" spans="1:4">
@@ -30626,7 +30626,7 @@
         <v>244</v>
       </c>
       <c r="D2067">
-        <v>104.6659122653682</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2068" spans="1:4">
@@ -32838,7 +32838,7 @@
         <v>401</v>
       </c>
       <c r="D2225">
-        <v>99.7442290944591</v>
+        <v>100.962425</v>
       </c>
     </row>
     <row r="2226" spans="1:4">
@@ -33286,7 +33286,7 @@
         <v>26</v>
       </c>
       <c r="D2257">
-        <v>92.70739594983058</v>
+        <v>93.93247002562843</v>
       </c>
     </row>
     <row r="2258" spans="1:4">
@@ -35666,7 +35666,7 @@
         <v>206</v>
       </c>
       <c r="D2427">
-        <v>93.15351399208542</v>
+        <v>97.552441</v>
       </c>
     </row>
     <row r="2428" spans="1:4">
@@ -36828,7 +36828,7 @@
         <v>286</v>
       </c>
       <c r="D2510">
-        <v>100.9623405107191</v>
+        <v>100.9108770032046</v>
       </c>
     </row>
     <row r="2511" spans="1:4">

--- a/python/indprodpy.xlsx
+++ b/python/indprodpy.xlsx
@@ -1719,7 +1719,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>106.3064447924119</v>
+        <v>106.6697759015458</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1943,7 +1943,7 @@
         <v>19</v>
       </c>
       <c r="D18">
-        <v>98.25200923642505</v>
+        <v>98.08937188850531</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>43</v>
       </c>
       <c r="D42">
-        <v>99.1126879059785</v>
+        <v>99.14613402100964</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2363,7 +2363,7 @@
         <v>49</v>
       </c>
       <c r="D48">
-        <v>77.97055668079169</v>
+        <v>77.68765124603856</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -2433,7 +2433,7 @@
         <v>54</v>
       </c>
       <c r="D53">
-        <v>95.5414276377838</v>
+        <v>95.5589085220155</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -2587,7 +2587,7 @@
         <v>65</v>
       </c>
       <c r="D64">
-        <v>109.3022814416576</v>
+        <v>109.8925195806145</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -2615,7 +2615,7 @@
         <v>67</v>
       </c>
       <c r="D66">
-        <v>117.7505202255779</v>
+        <v>113.0019626461637</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4337,7 +4337,7 @@
         <v>190</v>
       </c>
       <c r="D189">
-        <v>95.356796</v>
+        <v>93.9542864452923</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -4351,7 +4351,7 @@
         <v>191</v>
       </c>
       <c r="D190">
-        <v>107.0569802532962</v>
+        <v>107.6044573497298</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -5653,7 +5653,7 @@
         <v>284</v>
       </c>
       <c r="D283">
-        <v>93.56636536934367</v>
+        <v>93.56583196153073</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -5667,7 +5667,7 @@
         <v>285</v>
       </c>
       <c r="D284">
-        <v>108.9169230756894</v>
+        <v>108.9163180776066</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -13087,7 +13087,7 @@
         <v>49</v>
       </c>
       <c r="D814">
-        <v>87.48973002747472</v>
+        <v>92.63505716731422</v>
       </c>
     </row>
     <row r="815" spans="1:4">
@@ -16293,7 +16293,7 @@
         <v>284</v>
       </c>
       <c r="D1043">
-        <v>91.52961502909437</v>
+        <v>91.52837576701513</v>
       </c>
     </row>
     <row r="1044" spans="1:4">
@@ -16307,7 +16307,7 @@
         <v>285</v>
       </c>
       <c r="D1044">
-        <v>108.1286100167392</v>
+        <v>108.1261987272516</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -23811,7 +23811,7 @@
         <v>49</v>
       </c>
       <c r="D1580">
-        <v>81.12287165949934</v>
+        <v>83.40314815364337</v>
       </c>
     </row>
     <row r="1581" spans="1:4">
@@ -29383,7 +29383,7 @@
         <v>49</v>
       </c>
       <c r="D1978">
-        <v>87.8954994832086</v>
+        <v>89.5710513038383</v>
       </c>
     </row>
     <row r="1979" spans="1:4">
@@ -29509,7 +29509,7 @@
         <v>58</v>
       </c>
       <c r="D1987">
-        <v>112.8174172966035</v>
+        <v>112.817377052717</v>
       </c>
     </row>
     <row r="1988" spans="1:4">
@@ -31175,7 +31175,7 @@
         <v>176</v>
       </c>
       <c r="D2106">
-        <v>101.001516209479</v>
+        <v>101.0012858912882</v>
       </c>
     </row>
     <row r="2107" spans="1:4">
@@ -40471,7 +40471,7 @@
         <v>49</v>
       </c>
       <c r="D2770">
-        <v>95.95953665249681</v>
+        <v>96.20211478959699</v>
       </c>
     </row>
     <row r="2771" spans="1:4">

--- a/python/indprodpy.xlsx
+++ b/python/indprodpy.xlsx
@@ -1831,7 +1831,7 @@
         <v>11</v>
       </c>
       <c r="D10">
-        <v>97.9723841295088</v>
+        <v>97.81516850401901</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1971,7 +1971,7 @@
         <v>21</v>
       </c>
       <c r="D20">
-        <v>99.62507196166592</v>
+        <v>99.48162908961849</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -2083,7 +2083,7 @@
         <v>29</v>
       </c>
       <c r="D28">
-        <v>98.8281109522683</v>
+        <v>100.5834349464202</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -2279,7 +2279,7 @@
         <v>43</v>
       </c>
       <c r="D42">
-        <v>99.14613402100964</v>
+        <v>99.21740117953917</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -2321,7 +2321,7 @@
         <v>46</v>
       </c>
       <c r="D45">
-        <v>125.1755783865264</v>
+        <v>122.7598584755563</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -2391,7 +2391,7 @@
         <v>51</v>
       </c>
       <c r="D50">
-        <v>100.7088462437657</v>
+        <v>99.46049471346386</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -2405,7 +2405,7 @@
         <v>52</v>
       </c>
       <c r="D51">
-        <v>133.004366206722</v>
+        <v>134.8584210247017</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -2475,7 +2475,7 @@
         <v>57</v>
       </c>
       <c r="D56">
-        <v>99.99215324177725</v>
+        <v>100.9591788324404</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2517,7 +2517,7 @@
         <v>60</v>
       </c>
       <c r="D59">
-        <v>152.8969553691768</v>
+        <v>148.3875646907105</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -2531,7 +2531,7 @@
         <v>61</v>
       </c>
       <c r="D60">
-        <v>111.1346967053867</v>
+        <v>109.2747151480127</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -2545,7 +2545,7 @@
         <v>62</v>
       </c>
       <c r="D61">
-        <v>118.61086305314</v>
+        <v>114.6726060890235</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2559,7 +2559,7 @@
         <v>63</v>
       </c>
       <c r="D62">
-        <v>103.4720467330032</v>
+        <v>101.9875786818779</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -2573,7 +2573,7 @@
         <v>64</v>
       </c>
       <c r="D63">
-        <v>100.9224131037419</v>
+        <v>99.57385501493128</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2601,7 +2601,7 @@
         <v>66</v>
       </c>
       <c r="D65">
-        <v>112.2822762923923</v>
+        <v>109.4157104284342</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -2629,7 +2629,7 @@
         <v>68</v>
       </c>
       <c r="D67">
-        <v>101.089871541381</v>
+        <v>98.78097568439779</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -2643,7 +2643,7 @@
         <v>69</v>
       </c>
       <c r="D68">
-        <v>87.37982494309014</v>
+        <v>87.10821521562623</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -2699,7 +2699,7 @@
         <v>73</v>
       </c>
       <c r="D72">
-        <v>123.281455390103</v>
+        <v>125.5911673407743</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -2713,7 +2713,7 @@
         <v>74</v>
       </c>
       <c r="D73">
-        <v>110.6568837731646</v>
+        <v>109.5774366690961</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -2741,7 +2741,7 @@
         <v>76</v>
       </c>
       <c r="D75">
-        <v>111.554686097604</v>
+        <v>110.0815930454121</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -2769,7 +2769,7 @@
         <v>78</v>
       </c>
       <c r="D77">
-        <v>96.84146289649971</v>
+        <v>96.18390477058117</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -2797,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="D79">
-        <v>123.3165685573141</v>
+        <v>121.3152394718839</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -2867,7 +2867,7 @@
         <v>85</v>
       </c>
       <c r="D84">
-        <v>99.4137289381496</v>
+        <v>99.43146118041048</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -2993,7 +2993,7 @@
         <v>94</v>
       </c>
       <c r="D93">
-        <v>99.49009016455328</v>
+        <v>99.55514596315922</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -3105,7 +3105,7 @@
         <v>102</v>
       </c>
       <c r="D101">
-        <v>100.8818700604507</v>
+        <v>98.49213752608887</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -3175,7 +3175,7 @@
         <v>107</v>
       </c>
       <c r="D106">
-        <v>100.4458046372149</v>
+        <v>101.0478059843626</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -4771,7 +4771,7 @@
         <v>221</v>
       </c>
       <c r="D220">
-        <v>103.5769736813976</v>
+        <v>104.074122530785</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5947,7 +5947,7 @@
         <v>305</v>
       </c>
       <c r="D304">
-        <v>83.81373296979933</v>
+        <v>80.1582427543279</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6885,7 +6885,7 @@
         <v>372</v>
       </c>
       <c r="D371">
-        <v>104.7243805652471</v>
+        <v>106.8897342987391</v>
       </c>
     </row>
     <row r="372" spans="1:4">
@@ -6941,7 +6941,7 @@
         <v>376</v>
       </c>
       <c r="D375">
-        <v>98.77278984170705</v>
+        <v>99.16374042181646</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -6997,7 +6997,7 @@
         <v>380</v>
       </c>
       <c r="D379">
-        <v>96.36024237041929</v>
+        <v>96.05304316299356</v>
       </c>
     </row>
     <row r="380" spans="1:4">
@@ -7333,7 +7333,7 @@
         <v>4</v>
       </c>
       <c r="D403">
-        <v>96.98134012469652</v>
+        <v>99.95015241674351</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -7949,7 +7949,7 @@
         <v>47</v>
       </c>
       <c r="D447">
-        <v>125.4562394858032</v>
+        <v>119.4645154473155</v>
       </c>
     </row>
     <row r="448" spans="1:4">
@@ -8075,7 +8075,7 @@
         <v>57</v>
       </c>
       <c r="D456">
-        <v>85.65612242060251</v>
+        <v>91.24076282239071</v>
       </c>
     </row>
     <row r="457" spans="1:4">
@@ -8313,7 +8313,7 @@
         <v>74</v>
       </c>
       <c r="D473">
-        <v>134.990345108777</v>
+        <v>128.6182540208401</v>
       </c>
     </row>
     <row r="474" spans="1:4">
@@ -8761,7 +8761,7 @@
         <v>107</v>
       </c>
       <c r="D505">
-        <v>104.711030258278</v>
+        <v>106.1281411714506</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -11813,7 +11813,7 @@
         <v>422</v>
       </c>
       <c r="D723">
-        <v>360.5588858820479</v>
+        <v>114.018731</v>
       </c>
     </row>
     <row r="724" spans="1:4">
@@ -11995,7 +11995,7 @@
         <v>361</v>
       </c>
       <c r="D736">
-        <v>104.2161825158277</v>
+        <v>102.510365</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -12807,7 +12807,7 @@
         <v>30</v>
       </c>
       <c r="D794">
-        <v>72.52897766088026</v>
+        <v>101.5460538525742</v>
       </c>
     </row>
     <row r="795" spans="1:4">
@@ -12821,7 +12821,7 @@
         <v>403</v>
       </c>
       <c r="D795">
-        <v>96.21954581957615</v>
+        <v>100</v>
       </c>
     </row>
     <row r="796" spans="1:4">
@@ -12905,7 +12905,7 @@
         <v>36</v>
       </c>
       <c r="D801">
-        <v>106.4061279744136</v>
+        <v>109.8996887846945</v>
       </c>
     </row>
     <row r="802" spans="1:4">
@@ -13115,7 +13115,7 @@
         <v>51</v>
       </c>
       <c r="D816">
-        <v>95.93007616547406</v>
+        <v>99.22681713782782</v>
       </c>
     </row>
     <row r="817" spans="1:4">
@@ -13283,7 +13283,7 @@
         <v>64</v>
       </c>
       <c r="D828">
-        <v>95.39384888549418</v>
+        <v>92.93136255313982</v>
       </c>
     </row>
     <row r="829" spans="1:4">
@@ -13325,7 +13325,7 @@
         <v>67</v>
       </c>
       <c r="D831">
-        <v>115.6326367914215</v>
+        <v>109.0656920397413</v>
       </c>
     </row>
     <row r="832" spans="1:4">
@@ -13395,7 +13395,7 @@
         <v>72</v>
       </c>
       <c r="D836">
-        <v>134.2015322974662</v>
+        <v>131.3313228677069</v>
       </c>
     </row>
     <row r="837" spans="1:4">
@@ -13437,7 +13437,7 @@
         <v>75</v>
       </c>
       <c r="D839">
-        <v>105.92164276222</v>
+        <v>102.9062592029584</v>
       </c>
     </row>
     <row r="840" spans="1:4">
@@ -13451,7 +13451,7 @@
         <v>76</v>
       </c>
       <c r="D840">
-        <v>104.2577614797528</v>
+        <v>100.5883760795951</v>
       </c>
     </row>
     <row r="841" spans="1:4">
@@ -13507,7 +13507,7 @@
         <v>80</v>
       </c>
       <c r="D844">
-        <v>125.998803074178</v>
+        <v>129.4986815633182</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -13759,7 +13759,7 @@
         <v>98</v>
       </c>
       <c r="D862">
-        <v>106.7130093827981</v>
+        <v>106.7130093827982</v>
       </c>
     </row>
     <row r="863" spans="1:4">
@@ -13815,7 +13815,7 @@
         <v>102</v>
       </c>
       <c r="D866">
-        <v>108.0071322402297</v>
+        <v>103.1061016501513</v>
       </c>
     </row>
     <row r="867" spans="1:4">
@@ -14487,7 +14487,7 @@
         <v>155</v>
       </c>
       <c r="D914">
-        <v>111.4172029062311</v>
+        <v>100</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -15775,7 +15775,7 @@
         <v>248</v>
       </c>
       <c r="D1006">
-        <v>111.8033988749895</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1007" spans="1:4">
@@ -18673,7 +18673,7 @@
         <v>59</v>
       </c>
       <c r="D1213">
-        <v>112.7683701571777</v>
+        <v>115.0844850993257</v>
       </c>
     </row>
     <row r="1214" spans="1:4">
@@ -18869,7 +18869,7 @@
         <v>73</v>
       </c>
       <c r="D1227">
-        <v>136.6091710801129</v>
+        <v>132.9487249808903</v>
       </c>
     </row>
     <row r="1228" spans="1:4">
@@ -18939,7 +18939,7 @@
         <v>78</v>
       </c>
       <c r="D1232">
-        <v>101.6231221364068</v>
+        <v>97.75426051776809</v>
       </c>
     </row>
     <row r="1233" spans="1:4">
@@ -20381,7 +20381,7 @@
         <v>190</v>
       </c>
       <c r="D1335">
-        <v>88.599969</v>
+        <v>88.3298857516557</v>
       </c>
     </row>
     <row r="1336" spans="1:4">
@@ -23279,7 +23279,7 @@
         <v>13</v>
       </c>
       <c r="D1542">
-        <v>112.4814257316925</v>
+        <v>99.27491512855644</v>
       </c>
     </row>
     <row r="1543" spans="1:4">
@@ -23727,7 +23727,7 @@
         <v>43</v>
       </c>
       <c r="D1574">
-        <v>97.14484520526713</v>
+        <v>97.27795170442958</v>
       </c>
     </row>
     <row r="1575" spans="1:4">
@@ -23951,7 +23951,7 @@
         <v>59</v>
       </c>
       <c r="D1590">
-        <v>107.3373480523462</v>
+        <v>108.2845512732877</v>
       </c>
     </row>
     <row r="1591" spans="1:4">
@@ -23979,7 +23979,7 @@
         <v>61</v>
       </c>
       <c r="D1592">
-        <v>131.3914835777116</v>
+        <v>126.9478229104381</v>
       </c>
     </row>
     <row r="1593" spans="1:4">
@@ -24133,7 +24133,7 @@
         <v>72</v>
       </c>
       <c r="D1603">
-        <v>161.6210016582897</v>
+        <v>162.7284447190616</v>
       </c>
     </row>
     <row r="1604" spans="1:4">
@@ -24161,7 +24161,7 @@
         <v>74</v>
       </c>
       <c r="D1605">
-        <v>109.3758352684125</v>
+        <v>110.7239781366684</v>
       </c>
     </row>
     <row r="1606" spans="1:4">
@@ -26205,7 +26205,7 @@
         <v>221</v>
       </c>
       <c r="D1751">
-        <v>97.65544362392696</v>
+        <v>98.70296161780117</v>
       </c>
     </row>
     <row r="1752" spans="1:4">
@@ -26485,7 +26485,7 @@
         <v>238</v>
       </c>
       <c r="D1771">
-        <v>97.53921444838188</v>
+        <v>99.67714136229802</v>
       </c>
     </row>
     <row r="1772" spans="1:4">
@@ -27507,7 +27507,7 @@
         <v>316</v>
       </c>
       <c r="D1844">
-        <v>122.4744871391589</v>
+        <v>100</v>
       </c>
     </row>
     <row r="1845" spans="1:4">
@@ -28725,7 +28725,7 @@
         <v>4</v>
       </c>
       <c r="D1931">
-        <v>97.43146401486764</v>
+        <v>96.97304934569109</v>
       </c>
     </row>
     <row r="1932" spans="1:4">
@@ -29089,7 +29089,7 @@
         <v>29</v>
       </c>
       <c r="D1957">
-        <v>97.14949382911212</v>
+        <v>95.77330262019686</v>
       </c>
     </row>
     <row r="1958" spans="1:4">
@@ -29117,7 +29117,7 @@
         <v>403</v>
       </c>
       <c r="D1959">
-        <v>95.82310940537675</v>
+        <v>98.44862993350927</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -29355,7 +29355,7 @@
         <v>47</v>
       </c>
       <c r="D1976">
-        <v>104.4817802018151</v>
+        <v>103.7940869910405</v>
       </c>
     </row>
     <row r="1977" spans="1:4">
@@ -29383,7 +29383,7 @@
         <v>49</v>
       </c>
       <c r="D1978">
-        <v>89.5710513038383</v>
+        <v>89.57341896718314</v>
       </c>
     </row>
     <row r="1979" spans="1:4">
@@ -29397,7 +29397,7 @@
         <v>50</v>
       </c>
       <c r="D1979">
-        <v>120.9667799868312</v>
+        <v>120.0573672311498</v>
       </c>
     </row>
     <row r="1980" spans="1:4">
@@ -29411,7 +29411,7 @@
         <v>51</v>
       </c>
       <c r="D1980">
-        <v>113.739401044962</v>
+        <v>113.0942357460346</v>
       </c>
     </row>
     <row r="1981" spans="1:4">
@@ -29425,7 +29425,7 @@
         <v>52</v>
       </c>
       <c r="D1981">
-        <v>141.3217878846298</v>
+        <v>141.8100251619676</v>
       </c>
     </row>
     <row r="1982" spans="1:4">
@@ -29467,7 +29467,7 @@
         <v>55</v>
       </c>
       <c r="D1984">
-        <v>101.5250266466627</v>
+        <v>102.2565182563573</v>
       </c>
     </row>
     <row r="1985" spans="1:4">
@@ -29495,7 +29495,7 @@
         <v>57</v>
       </c>
       <c r="D1986">
-        <v>106.3065038591222</v>
+        <v>105.2266671282993</v>
       </c>
     </row>
     <row r="1987" spans="1:4">
@@ -29509,7 +29509,7 @@
         <v>58</v>
       </c>
       <c r="D1987">
-        <v>112.817377052717</v>
+        <v>110.1829003540145</v>
       </c>
     </row>
     <row r="1988" spans="1:4">
@@ -29523,7 +29523,7 @@
         <v>59</v>
       </c>
       <c r="D1988">
-        <v>105.2915566724132</v>
+        <v>103.1909137909289</v>
       </c>
     </row>
     <row r="1989" spans="1:4">
@@ -29537,7 +29537,7 @@
         <v>60</v>
       </c>
       <c r="D1989">
-        <v>165.3952858426298</v>
+        <v>165.1921970654421</v>
       </c>
     </row>
     <row r="1990" spans="1:4">
@@ -29551,7 +29551,7 @@
         <v>61</v>
       </c>
       <c r="D1990">
-        <v>126.2161323391295</v>
+        <v>123.8984482041514</v>
       </c>
     </row>
     <row r="1991" spans="1:4">
@@ -29565,7 +29565,7 @@
         <v>62</v>
       </c>
       <c r="D1991">
-        <v>120.056806773364</v>
+        <v>119.762520903603</v>
       </c>
     </row>
     <row r="1992" spans="1:4">
@@ -29747,7 +29747,7 @@
         <v>75</v>
       </c>
       <c r="D2004">
-        <v>112.1444665348862</v>
+        <v>108.7330418615845</v>
       </c>
     </row>
     <row r="2005" spans="1:4">
@@ -29761,7 +29761,7 @@
         <v>76</v>
       </c>
       <c r="D2005">
-        <v>107.9457535322759</v>
+        <v>108.7014855716852</v>
       </c>
     </row>
     <row r="2006" spans="1:4">
@@ -29817,7 +29817,7 @@
         <v>80</v>
       </c>
       <c r="D2009">
-        <v>137.5404345295339</v>
+        <v>134.3674037168061</v>
       </c>
     </row>
     <row r="2010" spans="1:4">
@@ -30055,7 +30055,7 @@
         <v>97</v>
       </c>
       <c r="D2026">
-        <v>99.98606924695234</v>
+        <v>99.4282672820206</v>
       </c>
     </row>
     <row r="2027" spans="1:4">
@@ -31721,7 +31721,7 @@
         <v>221</v>
       </c>
       <c r="D2145">
-        <v>108.3703766094349</v>
+        <v>107.1979820745482</v>
       </c>
     </row>
     <row r="2146" spans="1:4">
@@ -32211,7 +32211,7 @@
         <v>258</v>
       </c>
       <c r="D2180">
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2181" spans="1:4">
@@ -35333,7 +35333,7 @@
         <v>74</v>
       </c>
       <c r="D2403">
-        <v>91.43873771559754</v>
+        <v>93.98223255484122</v>
       </c>
     </row>
     <row r="2404" spans="1:4">
@@ -37391,7 +37391,7 @@
         <v>221</v>
       </c>
       <c r="D2550">
-        <v>109.9854298574017</v>
+        <v>102.4439155502764</v>
       </c>
     </row>
     <row r="2551" spans="1:4">
@@ -38007,7 +38007,7 @@
         <v>429</v>
       </c>
       <c r="D2594">
-        <v>91.46912192286945</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2595" spans="1:4">
@@ -39813,7 +39813,7 @@
         <v>4</v>
       </c>
       <c r="D2723">
-        <v>97.08218753158118</v>
+        <v>100.3967264549418</v>
       </c>
     </row>
     <row r="2724" spans="1:4">
@@ -39897,7 +39897,7 @@
         <v>10</v>
       </c>
       <c r="D2729">
-        <v>98.54479305119108</v>
+        <v>105.1207471721097</v>
       </c>
     </row>
     <row r="2730" spans="1:4">
@@ -39939,7 +39939,7 @@
         <v>13</v>
       </c>
       <c r="D2732">
-        <v>91.85779579486619</v>
+        <v>98.27986768659149</v>
       </c>
     </row>
     <row r="2733" spans="1:4">
@@ -40247,7 +40247,7 @@
         <v>33</v>
       </c>
       <c r="D2754">
-        <v>95.72691111212919</v>
+        <v>96.13957811659644</v>
       </c>
     </row>
     <row r="2755" spans="1:4">
@@ -40513,7 +40513,7 @@
         <v>52</v>
       </c>
       <c r="D2773">
-        <v>121.4454565945065</v>
+        <v>120.2162544714154</v>
       </c>
     </row>
     <row r="2774" spans="1:4">
@@ -40527,7 +40527,7 @@
         <v>53</v>
       </c>
       <c r="D2774">
-        <v>154.1817814647202</v>
+        <v>147.6313643270935</v>
       </c>
     </row>
     <row r="2775" spans="1:4">
@@ -40611,7 +40611,7 @@
         <v>59</v>
       </c>
       <c r="D2780">
-        <v>101.9044333867906</v>
+        <v>99.6548261868484</v>
       </c>
     </row>
     <row r="2781" spans="1:4">
@@ -40681,7 +40681,7 @@
         <v>64</v>
       </c>
       <c r="D2785">
-        <v>100.9423276562826</v>
+        <v>100.659282777553</v>
       </c>
     </row>
     <row r="2786" spans="1:4">
@@ -44713,7 +44713,7 @@
         <v>376</v>
       </c>
       <c r="D3073">
-        <v>101.4195946799963</v>
+        <v>103.3010050244103</v>
       </c>
     </row>
     <row r="3074" spans="1:4">
